--- a/result_table_templates/DG_speed_tuning_by_cell.xlsx
+++ b/result_table_templates/DG_speed_tuning_by_cell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregschwartz/matlab/DJ_schwartzlab/result_table_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7274E951-5791-174C-ACA2-0F20E849FAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F8773B-2B9C-3845-B76D-23E45141FB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12120" yWindow="500" windowWidth="38060" windowHeight="29520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Field</t>
   </si>
@@ -43,12 +43,6 @@
     <t>set of speeds (microns / sec)</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>name of the cell</t>
-  </si>
-  <si>
     <t>max_cycle_avg_amplitude</t>
   </si>
   <si>
@@ -83,9 +77,6 @@
   </si>
   <si>
     <t>mean_cycle_avg_peak_pos</t>
-  </si>
-  <si>
-    <t>cell_name</t>
   </si>
   <si>
     <t>cell_unid</t>
@@ -449,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="211" zoomScaleNormal="211" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -475,24 +466,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -500,7 +491,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -511,7 +502,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -522,7 +513,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -541,34 +532,23 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C9" t="s">
         <v>6</v>
       </c>
     </row>

--- a/result_table_templates/DG_speed_tuning_by_cell.xlsx
+++ b/result_table_templates/DG_speed_tuning_by_cell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gregschwartz/matlab/DJ_schwartzlab/result_table_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F8773B-2B9C-3845-B76D-23E45141FB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3004C9DC-CEAD-5E4E-874D-B7E1ABEF0CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12120" yWindow="500" windowWidth="38060" windowHeight="29520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,11 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Field</t>
   </si>
   <si>
+    <t>file_name</t>
+  </si>
+  <si>
+    <t>source_id</t>
+  </si>
+  <si>
     <t>speeds</t>
   </si>
   <si>
@@ -43,6 +49,9 @@
     <t>set of speeds (microns / sec)</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>max_cycle_avg_amplitude</t>
   </si>
   <si>
@@ -79,13 +88,13 @@
     <t>mean_cycle_avg_peak_pos</t>
   </si>
   <si>
-    <t>cell_unid</t>
-  </si>
-  <si>
     <t>uint16</t>
   </si>
   <si>
-    <t>cell_id_number</t>
+    <t>source id of cell</t>
+  </si>
+  <si>
+    <t>file name of symphony file</t>
   </si>
 </sst>
 </file>
@@ -440,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="211" zoomScaleNormal="211" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -458,76 +467,76 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -535,21 +544,32 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
